--- a/新しいフォルダー/Book1.xlsx
+++ b/新しいフォルダー/Book1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshi\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\Yakyu3D\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17769992-81C1-4ACD-9E93-680365AC1165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{085FE9F0-B73E-4B9C-BFEA-C19F79C9F8CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
@@ -74,19 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>守備を動かす(制限2)</t>
-    <rPh sb="0" eb="2">
-      <t>シュビ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -280,13 +266,107 @@
   </si>
   <si>
     <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイング修正1P</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイング修正2P</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイング修正CPU</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収録チーム説明</t>
+    <rPh sb="0" eb="2">
+      <t>シュウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法・クレジット</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発エフェクト修正</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守備チート</t>
+    <rPh sb="0" eb="2">
+      <t>シュビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,11 +723,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E583D1EE-495D-4D0D-9309-0BABFDA4675E}">
-  <dimension ref="B1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -663,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
@@ -674,340 +754,343 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <f>COUNTIF($D$1:$D$500,"P")</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <f>COUNTIF($D$1:$D$500,"C")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
@@ -1015,10 +1098,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
@@ -1026,10 +1109,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
@@ -1037,38 +1120,107 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/新しいフォルダー/Book1.xlsx
+++ b/新しいフォルダー/Book1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
@@ -60,19 +60,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4番打者アーチ化</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -323,13 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>操作方法・クレジット</t>
-    <rPh sb="0" eb="4">
-      <t>ソウサホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -356,6 +336,117 @@
     <rPh sb="0" eb="2">
       <t>シュビ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観客スタンド等</t>
+    <rPh sb="0" eb="2">
+      <t>カンキャク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>βプログラム総数</t>
+    <rPh sb="6" eb="8">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>βコンテンツ総数</t>
+    <rPh sb="6" eb="8">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二球場</t>
+    <rPh sb="0" eb="2">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんかすごいスタジアム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただのグラウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発エフェクト</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランナー実体化</t>
+    <rPh sb="4" eb="7">
+      <t>ジッタイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランナーHIT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -724,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G44"/>
+  <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G19:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -735,373 +826,535 @@
     <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1">
+        <f>COUNTIF($D$1:$D$500,"P")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
       <c r="G2">
-        <f>COUNTIF($D$1:$D$500,"P")</f>
+        <f>COUNTIF($D$1:$D$500,"C")</f>
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF($H$4:$H$503,"P")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF($H$4:$H$503,"C")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <f>COUNTIF($D$1:$D$500,"C")</f>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
@@ -1109,113 +1362,21 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/新しいフォルダー/Book1.xlsx
+++ b/新しいフォルダー/Book1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\Yakyu3D\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshi\OneDrive\デスクトップ\yakyu3D\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0527C-6C9B-4FF5-BD16-EBEE9F032FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
@@ -378,10 +379,6 @@
     <rPh sb="2" eb="4">
       <t>キュウジョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なんかすごいスタジアム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -457,7 +454,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,11 +811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G19:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -888,7 +885,7 @@
       </c>
       <c r="J3">
         <f>COUNTIF($H$4:$H$503,"C")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
@@ -904,6 +901,9 @@
       <c r="F4" t="s">
         <v>56</v>
       </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
       <c r="H4" t="s">
         <v>57</v>
       </c>
@@ -939,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
@@ -1018,6 +1018,9 @@
       <c r="F10" t="s">
         <v>47</v>
       </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
       <c r="H10" t="s">
         <v>48</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
         <v>50</v>
@@ -1053,10 +1056,10 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
@@ -1093,13 +1096,13 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
         <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
@@ -1113,13 +1116,13 @@
         <v>36</v>
       </c>
       <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
         <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
@@ -1136,10 +1139,10 @@
         <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1152,12 +1155,6 @@
       <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
@@ -1170,7 +1167,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
         <v>37</v>
@@ -1187,10 +1184,10 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -1207,13 +1204,13 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
         <v>73</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -1227,10 +1224,10 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
         <v>75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>76</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>

--- a/新しいフォルダー/Book1.xlsx
+++ b/新しいフォルダー/Book1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshi\OneDrive\デスクトップ\yakyu3D\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\Yakyu3D\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0527C-6C9B-4FF5-BD16-EBEE9F032FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
   <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
@@ -448,13 +447,91 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイングエフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻守交替処理</t>
+    <rPh sb="0" eb="4">
+      <t>コウシュコウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランナー進行プログラム</t>
+    <rPh sb="4" eb="6">
+      <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投球エフェクト</t>
+    <rPh sb="0" eb="2">
+      <t>トウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻守交替処理、守備</t>
+    <rPh sb="0" eb="4">
+      <t>コウシュコウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強制タイトル移行処理</t>
+    <rPh sb="0" eb="2">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,9 +571,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,11 +891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -867,7 +947,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF($H$4:$H$503,"P")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
@@ -885,7 +965,7 @@
       </c>
       <c r="J3">
         <f>COUNTIF($H$4:$H$503,"C")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
@@ -1145,7 +1225,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1193,7 +1273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1213,7 +1293,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>35</v>
       </c>
@@ -1243,8 +1323,20 @@
       <c r="D22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -1254,8 +1346,17 @@
       <c r="D23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -1265,8 +1366,14 @@
       <c r="D24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -1276,8 +1383,17 @@
       <c r="D25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1403,14 @@
       <c r="D26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -1298,8 +1420,14 @@
       <c r="D27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -1309,8 +1437,14 @@
       <c r="D28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>11</v>
       </c>
@@ -1321,7 +1455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -1377,6 +1511,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I22:N22"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/新しいフォルダー/Book1.xlsx
+++ b/新しいフォルダー/Book1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\Yakyu3D\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshi\OneDrive\デスクトップ\yakyu3D\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B5E22-234C-414B-A94B-D1ABF1C91AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
   <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
@@ -531,7 +532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -891,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1326,6 +1327,9 @@
       <c r="F22" t="s">
         <v>76</v>
       </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>

--- a/新しいフォルダー/Book1.xlsx
+++ b/新しいフォルダー/Book1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\Yakyu3D\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshi\OneDrive\デスクトップ\yakyu3D\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071C32E3-54BE-41BB-8C48-BEBF8F2952C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
@@ -531,7 +532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -891,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:H24"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1406,6 +1407,9 @@
       <c r="F26" t="s">
         <v>82</v>
       </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
@@ -1422,6 +1426,9 @@
       </c>
       <c r="F27" t="s">
         <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
       </c>
       <c r="H27" t="s">
         <v>84</v>

--- a/新しいフォルダー/Book1.xlsx
+++ b/新しいフォルダー/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshi\OneDrive\デスクトップ\yakyu3D\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071C32E3-54BE-41BB-8C48-BEBF8F2952C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE216AA-846B-4D3C-BDF9-C6F57ECAF9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1467,6 +1467,9 @@
       <c r="F29" t="s">
         <v>87</v>
       </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
       <c r="H29" t="s">
         <v>36</v>
       </c>

--- a/新しいフォルダー/Book1.xlsx
+++ b/新しいフォルダー/Book1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshi\OneDrive\デスクトップ\yakyu3D\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\Yakyu3D\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE216AA-846B-4D3C-BDF9-C6F57ECAF9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
@@ -526,13 +525,68 @@
     <rPh sb="2" eb="4">
       <t>ソウサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムベース基盤</t>
+    <rPh sb="6" eb="8">
+      <t>キバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打者機能</t>
+    <rPh sb="0" eb="2">
+      <t>ダシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守備機能</t>
+    <rPh sb="0" eb="4">
+      <t>シュビキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,11 +946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -948,7 +1002,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF($H$4:$H$503,"P")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
@@ -966,7 +1020,7 @@
       </c>
       <c r="J3">
         <f>COUNTIF($H$4:$H$503,"C")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
@@ -1484,6 +1538,15 @@
       <c r="D30" t="s">
         <v>37</v>
       </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
@@ -1495,6 +1558,12 @@
       <c r="D31" t="s">
         <v>37</v>
       </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
@@ -1506,8 +1575,17 @@
       <c r="D32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -1517,8 +1595,17 @@
       <c r="D33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>5</v>
       </c>

--- a/新しいフォルダー/Book1.xlsx
+++ b/新しいフォルダー/Book1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\Yakyu3D\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshi\OneDrive\デスクトップ\yakyu3D\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5D6693-8037-4CC8-8267-51035A8E5966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
@@ -623,13 +624,17 @@
     <rPh sb="6" eb="8">
       <t>ハキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -989,11 +994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1652,6 +1657,9 @@
       <c r="F35" t="s">
         <v>104</v>
       </c>
+      <c r="G35" t="s">
+        <v>105</v>
+      </c>
       <c r="H35" t="s">
         <v>99</v>
       </c>
@@ -1677,6 +1685,9 @@
       <c r="F37" t="s">
         <v>101</v>
       </c>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
       <c r="H37" t="s">
         <v>102</v>
       </c>
@@ -1684,6 +1695,9 @@
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
         <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>105</v>
       </c>
       <c r="H38" t="s">
         <v>102</v>
